--- a/data/trans_orig/P21D_6_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Dificultad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10310</v>
+        <v>10943</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01421187724909622</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05247104999083152</v>
+        <v>0.05569417798858135</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>7726</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3903</v>
+        <v>3987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14034</v>
+        <v>15004</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02871131091151367</v>
+        <v>0.02871131091151368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01450330650022573</v>
+        <v>0.01481696309885029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05215465805721697</v>
+        <v>0.05575950122381749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -783,19 +783,19 @@
         <v>10518</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6096</v>
+        <v>5590</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19569</v>
+        <v>20169</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02259185821334395</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01309284297063049</v>
+        <v>0.01200710817288559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04203250750580599</v>
+        <v>0.04332191230091741</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>193699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>186182</v>
+        <v>185549</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>196492</v>
@@ -821,7 +821,7 @@
         <v>0.9857881227509038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9475289500091685</v>
+        <v>0.9443058220114188</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>261351</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255043</v>
+        <v>254073</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>265174</v>
+        <v>265090</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9712886890884863</v>
+        <v>0.9712886890884865</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9478453419427829</v>
+        <v>0.9442404987761825</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9854966934997743</v>
+        <v>0.9851830369011498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>552</v>
@@ -854,19 +854,19 @@
         <v>455051</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>446000</v>
+        <v>445400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>459473</v>
+        <v>459979</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9774081417866558</v>
+        <v>0.9774081417866559</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9579674924941939</v>
+        <v>0.9566780876990828</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9869071570293698</v>
+        <v>0.9879928918271145</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>4108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1043</v>
+        <v>1221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9849</v>
+        <v>10137</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01037128447156605</v>
+        <v>0.01037128447156606</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002633798233802448</v>
+        <v>0.003082847199164553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02486348577182865</v>
+        <v>0.02559195640894808</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -979,19 +979,19 @@
         <v>9811</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5974</v>
+        <v>5577</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16263</v>
+        <v>15432</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02046724319973735</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0124630185332147</v>
+        <v>0.0116343132212687</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03392653416010987</v>
+        <v>0.0321929463499531</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1000,19 +1000,19 @@
         <v>13919</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8649</v>
+        <v>8849</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21788</v>
+        <v>21249</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01589916743315969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009878950960508868</v>
+        <v>0.01010794039077437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02488738007772051</v>
+        <v>0.02427154736150475</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>392010</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>386269</v>
+        <v>385981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>395075</v>
+        <v>394897</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9896287155284338</v>
+        <v>0.9896287155284341</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9751365142281707</v>
+        <v>0.974408043591052</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9973662017661974</v>
+        <v>0.9969171528008354</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>674</v>
@@ -1050,19 +1050,19 @@
         <v>469536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463084</v>
+        <v>463915</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>473373</v>
+        <v>473770</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9795327568002626</v>
+        <v>0.9795327568002627</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.96607346583989</v>
+        <v>0.9678070536500469</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9875369814667851</v>
+        <v>0.9883656867787313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1036</v>
@@ -1071,19 +1071,19 @@
         <v>861546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>853677</v>
+        <v>854216</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>866816</v>
+        <v>866616</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9841008325668403</v>
+        <v>0.9841008325668402</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9751126199222794</v>
+        <v>0.9757284526384947</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9901210490394907</v>
+        <v>0.9898920596092255</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6717</v>
+        <v>6576</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002805787204438754</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01646285891557305</v>
+        <v>0.01611731953766196</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5659</v>
+        <v>6819</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001358911492348835</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006717648985229651</v>
+        <v>0.008094070286055534</v>
       </c>
     </row>
     <row r="11">
@@ -1238,16 +1238,16 @@
         <v>406855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>401283</v>
+        <v>401424</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>408000</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9971942127955613</v>
+        <v>0.9971942127955612</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9835371410844268</v>
+        <v>0.9838826804623387</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>841265</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>836751</v>
+        <v>835591</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>842410</v>
@@ -1281,7 +1281,7 @@
         <v>0.9986410885076511</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9932823510147702</v>
+        <v>0.9919059297139451</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3867</v>
+        <v>3045</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00106832510780157</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007051935834735566</v>
+        <v>0.005552891557472886</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1397,19 +1397,19 @@
         <v>2716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6367</v>
+        <v>6412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005447341273505553</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001326109934763342</v>
+        <v>0.001320151661484596</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01276882127966858</v>
+        <v>0.01286059640507476</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1418,19 +1418,19 @@
         <v>3302</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7805</v>
+        <v>7310</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.00315386007692825</v>
+        <v>0.003153860076928249</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001200062166250456</v>
+        <v>0.001183503908798315</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007455376459122164</v>
+        <v>0.006982686328417075</v>
       </c>
     </row>
     <row r="14">
@@ -1447,16 +1447,16 @@
         <v>547736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>544455</v>
+        <v>545277</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>548322</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9989316748921986</v>
+        <v>0.9989316748921984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9929480641652649</v>
+        <v>0.9944471084425273</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1468,19 +1468,19 @@
         <v>495891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>492240</v>
+        <v>492195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>497946</v>
+        <v>497949</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9945526587264945</v>
+        <v>0.9945526587264943</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9872311787203312</v>
+        <v>0.9871394035949252</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9986738900652365</v>
+        <v>0.9986798483385154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1172</v>
@@ -1489,19 +1489,19 @@
         <v>1043627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1039124</v>
+        <v>1039619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1045673</v>
+        <v>1045690</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9968461399230717</v>
+        <v>0.9968461399230719</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9925446235408781</v>
+        <v>0.9930173136715834</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9987999378337494</v>
+        <v>0.9988164960912017</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>8631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3750</v>
+        <v>4267</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18049</v>
+        <v>17471</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005572434601422323</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002421252534703052</v>
+        <v>0.002755009736517579</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01165231881302225</v>
+        <v>0.01127910087775433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1614,19 +1614,19 @@
         <v>20253</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13712</v>
+        <v>14040</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29147</v>
+        <v>28793</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01204475332952261</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008154847631367375</v>
+        <v>0.008349738688579527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01733429246866372</v>
+        <v>0.01712379062439342</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1635,19 +1635,19 @@
         <v>28884</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19550</v>
+        <v>21208</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40505</v>
+        <v>39788</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.008941339680763202</v>
+        <v>0.008941339680763204</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006051959620845382</v>
+        <v>0.006565318412499593</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0125387684066205</v>
+        <v>0.01231692398005154</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>1540301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1530883</v>
+        <v>1531461</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1545182</v>
+        <v>1544665</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9944275653985777</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9883476811869778</v>
+        <v>0.9887208991222458</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9975787474652968</v>
+        <v>0.9972449902634826</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2320</v>
@@ -1685,19 +1685,19 @@
         <v>1661187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1652293</v>
+        <v>1652647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1667728</v>
+        <v>1667400</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9879552466704776</v>
+        <v>0.9879552466704774</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9826657075313362</v>
+        <v>0.9828762093756067</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9918451523686326</v>
+        <v>0.9916502613114205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3757</v>
@@ -1706,19 +1706,19 @@
         <v>3201489</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3189868</v>
+        <v>3190585</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3210823</v>
+        <v>3209165</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9910586603192366</v>
+        <v>0.9910586603192368</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9874612315933788</v>
+        <v>0.9876830760199485</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9939480403791545</v>
+        <v>0.9934346815875004</v>
       </c>
     </row>
     <row r="18">
